--- a/Code/GEMs/bphHIJ.xlsx
+++ b/Code/GEMs/bphHIJ.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\david\OneDrive\Dokument\MATLAB\iGEM\code\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="19" documentId="11_4A4C052103CA0C35A19FED2BF394E22153F9EA5F" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{FEB958C2-E3A3-470F-9A48-DDA6DCF6F4E0}"/>
+  <xr:revisionPtr revIDLastSave="21" documentId="11_4A4C052103CA0C35A19FED2BF394E22153F9EA5F" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{645679B3-549F-4A51-B603-ABA6C81EA5D2}"/>
   <bookViews>
-    <workbookView xWindow="15144" yWindow="1692" windowWidth="2388" windowHeight="564" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
@@ -493,8 +493,8 @@
   </sheetPr>
   <dimension ref="A1:L20"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1"/>
